--- a/peter pc measurements/overview_peters_measurements.xlsx
+++ b/peter pc measurements/overview_peters_measurements.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
         <v>3.148103595E-2</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9.31</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -477,11 +477,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.60506648312741662</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>1.5019509847003343</v>
+        <v>0.89688450157291766</v>
       </c>
     </row>
     <row r="5" spans="1:6">
